--- a/excel/stay_202309.xlsx
+++ b/excel/stay_202309.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -660,7 +660,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2600</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2458</t>
+          <t>5058</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1880</t>
+          <t>3880</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1109,12 +1109,12 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1139,24 +1139,24 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>8000</t>
+          <t>16000</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>陳寶慧</t>
+          <t>余承翰</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bao Chen</t>
+          <t>Jenson Yu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0AA39</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1286,54 +1286,54 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
           <t>2000</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>4000</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>余承翰</t>
+          <t>吳建霖</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jenson Yu</t>
+          <t>ChienLin Wu</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0AA4B</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2295</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1493,24 +1493,24 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2295</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>吳建霖</t>
+          <t>李俊賢</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ChienLin Wu</t>
+          <t>Kiven Lee</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0AA4S2</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1880</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1018</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1670,24 +1670,24 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2898</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>李俊賢</t>
+          <t>郭家渝</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kiven Lee</t>
+          <t>Zoe Kuo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0AA95</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>李俊賢</t>
+          <t>郭亮均</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kiven Lee</t>
+          <t>Joy Kuo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0AA95</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -2024,24 +2024,19 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2AA8A</t>
+          <t>09</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2076,7 +2071,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,600</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2096,22 +2091,22 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,175</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2131,22 +2126,22 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,458</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5,880</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2166,17 +2161,17 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5,018</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
@@ -2201,356 +2196,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>郭亮均</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Joy Kuo</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2AA8A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>2,000</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>1,880</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>4,458</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>2,000</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>2,000</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>2,000</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>2,000</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>16,338</t>
+          <t>36,131</t>
         </is>
       </c>
     </row>
